--- a/my_package/traj_excel_30/tested_robot_traj_7_.xlsx
+++ b/my_package/traj_excel_30/tested_robot_traj_7_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-1.732704007046913</v>
+        <v>1.732704007046913</v>
       </c>
       <c r="C1" t="n">
-        <v>1.37626565528972</v>
+        <v>0.1945306715051764</v>
       </c>
       <c r="D1" t="n">
-        <v>0.672838158291254</v>
+        <v>-0.672838158291254</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8673686043034796</v>
+        <v>0.7034277224914169</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796292848413</v>
+        <v>1.570796292848413</v>
       </c>
       <c r="G1" t="n">
         <v>0.161907685808031</v>
@@ -449,19 +449,19 @@
         <v>0.2074001699739488</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.734449897926843</v>
+        <v>1.734449897926843</v>
       </c>
       <c r="C2" t="n">
-        <v>1.376307349602878</v>
+        <v>0.1944889771920187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6729541981860235</v>
+        <v>-0.6729541981860235</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8674429489623947</v>
+        <v>0.7033533778325018</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796292708984</v>
+        <v>1.570796292708984</v>
       </c>
       <c r="G2" t="n">
         <v>0.1636535767152294</v>
@@ -472,19 +472,19 @@
         <v>0.4148003399478976</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.745338072090327</v>
+        <v>1.745338072090327</v>
       </c>
       <c r="C3" t="n">
-        <v>1.376567374412278</v>
+        <v>0.1942289523826182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6736778760508239</v>
+        <v>-0.6736778760508239</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8679065962634362</v>
+        <v>0.7028897305314603</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796291839441</v>
+        <v>1.570796291839441</v>
       </c>
       <c r="G3" t="n">
         <v>0.1745417510487718</v>
@@ -495,19 +495,19 @@
         <v>0.6222005099218464</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.771088086074367</v>
+        <v>1.771088086074367</v>
       </c>
       <c r="C4" t="n">
-        <v>1.377182320718034</v>
+        <v>0.1936140060768625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6753893397782359</v>
+        <v>-0.6753893397782359</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8690031000763088</v>
+        <v>0.7017932267185878</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796289783013</v>
+        <v>1.570796289783013</v>
       </c>
       <c r="G4" t="n">
         <v>0.2002917654349918</v>
@@ -518,19 +518,19 @@
         <v>0.8296006798957951</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.814176913182388</v>
+        <v>1.814176913182388</v>
       </c>
       <c r="C5" t="n">
-        <v>1.378211342102871</v>
+        <v>0.1925849846920256</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6782532203453618</v>
+        <v>-0.6782532203453618</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8708379364863175</v>
+        <v>0.6999583903085791</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796286341886</v>
+        <v>1.570796286341886</v>
       </c>
       <c r="G5" t="n">
         <v>0.2433805932160021</v>
@@ -541,19 +541,19 @@
         <v>1.037000849869744</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.87437937402317</v>
+        <v>1.87437937402317</v>
       </c>
       <c r="C6" t="n">
-        <v>1.379649060968359</v>
+        <v>0.1911472658265371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6822545512997377</v>
+        <v>-0.6822545512997377</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8734015167584348</v>
+        <v>0.6973948100364618</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796281534042</v>
+        <v>1.570796281534042</v>
       </c>
       <c r="G6" t="n">
         <v>0.3035830549970654</v>
@@ -564,19 +564,19 @@
         <v>1.244401019843693</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.949308567049777</v>
+        <v>1.949308567049777</v>
       </c>
       <c r="C7" t="n">
-        <v>1.381438474771145</v>
+        <v>0.1893578520237512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6872346882452469</v>
+        <v>-0.6872346882452469</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8765922003013664</v>
+        <v>0.6942041264935301</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.570796275550103</v>
+        <v>1.570796275550103</v>
       </c>
       <c r="G7" t="n">
         <v>0.3785122491939638</v>
@@ -587,19 +587,19 @@
         <v>1.451801189817642</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.03495629909848</v>
+        <v>2.03495629909848</v>
       </c>
       <c r="C8" t="n">
-        <v>1.383483862259181</v>
+        <v>0.1873124645357151</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6929272283280338</v>
+        <v>-0.6929272283280338</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8802393076316187</v>
+        <v>0.6905570191632778</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.570796268710169</v>
+        <v>1.570796268710169</v>
       </c>
       <c r="G8" t="n">
         <v>0.4641599825803687</v>
@@ -610,19 +610,19 @@
         <v>1.65920135979159</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.126233515927697</v>
+        <v>2.126233515927697</v>
       </c>
       <c r="C9" t="n">
-        <v>1.385663689707958</v>
+        <v>0.1851326370869383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6989939297224161</v>
+        <v>-0.6989939297224161</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8841261333375645</v>
+        <v>0.686670193457332</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.570796261420657</v>
+        <v>1.570796261420657</v>
       </c>
       <c r="G9" t="n">
         <v>0.5554372008352122</v>
@@ -633,19 +633,19 @@
         <v>1.866601529765539</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.217510732756915</v>
+        <v>2.217510732756915</v>
       </c>
       <c r="C10" t="n">
-        <v>1.387843517156735</v>
+        <v>0.1829528096381616</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7050606311167984</v>
+        <v>-0.7050606311167984</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8880129590435103</v>
+        <v>0.6827833677513863</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.570796254131145</v>
+        <v>1.570796254131145</v>
       </c>
       <c r="G10" t="n">
         <v>0.6467144190900558</v>
@@ -656,19 +656,19 @@
         <v>2.074001699739488</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.303158464805618</v>
+        <v>2.303158464805618</v>
       </c>
       <c r="C11" t="n">
-        <v>1.389888904644771</v>
+        <v>0.1809074221501255</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7107531711995853</v>
+        <v>-0.7107531711995853</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8916600663737626</v>
+        <v>0.679136260421134</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.57079624729121</v>
+        <v>1.57079624729121</v>
       </c>
       <c r="G11" t="n">
         <v>0.732362152476461</v>
@@ -679,19 +679,19 @@
         <v>2.281401869713437</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.378087657832224</v>
+        <v>2.378087657832224</v>
       </c>
       <c r="C12" t="n">
-        <v>1.391678318447557</v>
+        <v>0.1791180083473395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7157333081450945</v>
+        <v>-0.7157333081450945</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8948507499166942</v>
+        <v>0.6759455768782023</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.570796241307272</v>
+        <v>1.570796241307272</v>
       </c>
       <c r="G12" t="n">
         <v>0.8072913466733589</v>
@@ -702,19 +702,19 @@
         <v>2.488802039687386</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.438290118673007</v>
+        <v>2.438290118673007</v>
       </c>
       <c r="C13" t="n">
-        <v>1.393116037313046</v>
+        <v>0.1776802894818511</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7197346390994703</v>
+        <v>-0.7197346390994703</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8974143301888116</v>
+        <v>0.673381996606085</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.570796236499428</v>
+        <v>1.570796236499428</v>
       </c>
       <c r="G13" t="n">
         <v>0.8674938084544226</v>
@@ -725,19 +725,19 @@
         <v>2.696202209661334</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.481378945781028</v>
+        <v>2.481378945781028</v>
       </c>
       <c r="C14" t="n">
-        <v>1.394145058697882</v>
+        <v>0.1766512680970142</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7225985196665963</v>
+        <v>-0.7225985196665963</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8992491665988203</v>
+        <v>0.6715471601960763</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.570796233058301</v>
+        <v>1.570796233058301</v>
       </c>
       <c r="G14" t="n">
         <v>0.9105826362354328</v>
@@ -748,19 +748,19 @@
         <v>2.903602379635283</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.507128959765068</v>
+        <v>2.507128959765068</v>
       </c>
       <c r="C15" t="n">
-        <v>1.394760005003638</v>
+        <v>0.1760363217912584</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7243099833940083</v>
+        <v>-0.7243099833940083</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9003456704116928</v>
+        <v>0.6704506563832038</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.570796231001873</v>
+        <v>1.570796231001873</v>
       </c>
       <c r="G15" t="n">
         <v>0.9363326506216527</v>
@@ -771,19 +771,19 @@
         <v>3.111002549609232</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.518017133928552</v>
+        <v>2.518017133928552</v>
       </c>
       <c r="C16" t="n">
-        <v>1.395020029813039</v>
+        <v>0.1757762969818579</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7250336612588086</v>
+        <v>-0.7250336612588086</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9008093177127343</v>
+        <v>0.6699870090821622</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.57079623013233</v>
+        <v>1.57079623013233</v>
       </c>
       <c r="G16" t="n">
         <v>0.947220824955195</v>
@@ -794,19 +794,19 @@
         <v>3.31840271958318</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.519763024808483</v>
+        <v>2.519763024808483</v>
       </c>
       <c r="C17" t="n">
-        <v>1.395061724126196</v>
+        <v>0.1757346026687003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7251497011535781</v>
+        <v>-0.7251497011535781</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9008836623716494</v>
+        <v>0.6699126644232472</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.570796229992901</v>
+        <v>1.570796229992901</v>
       </c>
       <c r="G17" t="n">
         <v>0.9489667158623929</v>
